--- a/experiments/node/staged/rule_cot/ans.xlsx
+++ b/experiments/node/staged/rule_cot/ans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinsz\Desktop\NLP_project\03code\IDExtraction\experiments\node\staged\rule_cot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6728AE14-4EEE-406E-A257-836E3287BF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADDF1A0-C8F4-4185-AD4E-5F4EFE50B390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5355" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32175" yWindow="-1980" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1329,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105:F105"/>
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4375,6 +4375,50 @@
         <v>0.88025889967637549</v>
       </c>
     </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <f>_xlfn.STDEV.S(B2:B104)</f>
+        <v>0.23940250699944743</v>
+      </c>
+      <c r="C106">
+        <f t="shared" ref="C106:F106" si="1">_xlfn.STDEV.S(C2:C104)</f>
+        <v>0.25168986174466967</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>0.30436259752865408</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>0.28905955899078906</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>0.2823970262980085</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <f>B106/SQRT(103)*1.96</f>
+        <v>4.623449868484758E-2</v>
+      </c>
+      <c r="C107">
+        <f t="shared" ref="C107:F107" si="2">C106/SQRT(103)*1.96</f>
+        <v>4.8607488399652642E-2</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="2"/>
+        <v>5.8779886190531129E-2</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="2"/>
+        <v>5.5824493934949093E-2</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="2"/>
+        <v>5.4537795383280088E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
